--- a/data/trans_bre/P3A_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R2-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.7642352060610498</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9824087418915814</v>
+        <v>0.98240874189158</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.4568647248139888</v>
@@ -649,7 +649,7 @@
         <v>0.3138807333669306</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2271390526730085</v>
+        <v>0.2271390526730082</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.324471983046226</v>
+        <v>-5.470795595849816</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.282711748299095</v>
+        <v>-0.9643999673023651</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.962845263729745</v>
+        <v>-1.946045693684714</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.835211430590002</v>
+        <v>-1.940324151882593</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.841932168411459</v>
+        <v>-0.8120834080562895</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.428040248941691</v>
+        <v>-0.336261609267055</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6623449874808769</v>
+        <v>-0.6537020738808146</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3373554713331466</v>
+        <v>-0.3360349745151601</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.068992171613189</v>
+        <v>1.038112216249153</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.926002205222856</v>
+        <v>5.224357621011936</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.84047272737814</v>
+        <v>4.127028249479138</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.788909918952324</v>
+        <v>3.662451904604225</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5185702507336263</v>
+        <v>0.6551695041946691</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.476965390032842</v>
+        <v>3.758732533936546</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.714027727938323</v>
+        <v>3.805574267022955</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.409687625308429</v>
+        <v>1.33020823471147</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.7021047748850878</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4054643918274285</v>
+        <v>0.4054643918274284</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.246148357934625</v>
+        <v>-2.950252837900967</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09485935356680311</v>
+        <v>0.0172730765611647</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.7743674398828557</v>
+        <v>-0.6970689352202156</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.8238488969922438</v>
+        <v>-1.248993809574526</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6080968813063796</v>
+        <v>-0.5746168387526054</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.0691278580686375</v>
+        <v>-0.1452996275468386</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5121452990510494</v>
+        <v>-0.4570859168301021</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1789277040303245</v>
+        <v>-0.2630871595308416</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.790115274874927</v>
+        <v>1.978817642283433</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.11707944924593</v>
+        <v>4.868253101323504</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.816301208898695</v>
+        <v>2.847749256670883</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.443855392632387</v>
+        <v>3.37904375671904</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7377218299502045</v>
+        <v>0.8900953285793424</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.148021672741379</v>
+        <v>3.523572173626374</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.204073508861219</v>
+        <v>3.963543846859163</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.764271752988774</v>
+        <v>1.494426018366985</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.8386300107650162</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.578970486707052</v>
+        <v>2.578970486707055</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.02536689581432933</v>
@@ -849,7 +849,7 @@
         <v>-0.3322241610687577</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3981995315982461</v>
+        <v>0.3981995315982467</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.271277238806938</v>
+        <v>-3.005459222339167</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.568303293462309</v>
+        <v>-4.553465766213079</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.067125202470273</v>
+        <v>-3.259063303679973</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8028623005564244</v>
+        <v>-1.036110212056714</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5818882381136784</v>
+        <v>-0.5367833695230451</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5812343524577991</v>
+        <v>-0.5692335150632969</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.8202792010487245</v>
+        <v>-0.8575499870964971</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.10093888015891</v>
+        <v>-0.1200709540440834</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.811027474022191</v>
+        <v>3.046967575003394</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.830985889425272</v>
+        <v>2.988826504069179</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.480280896384</v>
+        <v>1.266349839558117</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.879100619205987</v>
+        <v>5.659107428359063</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.106200707518167</v>
+        <v>1.310274886098016</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.715219262476306</v>
+        <v>0.7198820354699613</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.337798801031377</v>
+        <v>1.078865422220587</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.250434479231726</v>
+        <v>1.146745985048261</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.877277568592281</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.594998775068886</v>
+        <v>-1.594998775068884</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4738493699735339</v>
@@ -949,7 +949,7 @@
         <v>1.579898334311843</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1982153550081102</v>
+        <v>-0.19821535500811</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.089282683409994</v>
+        <v>-1.109561195036237</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.084112221744307</v>
+        <v>-2.095847906063898</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.252201580339994</v>
+        <v>-0.05274223596980133</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.464394898317797</v>
+        <v>-6.189189207406086</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2445353468134542</v>
+        <v>-0.2631188641565948</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5179845311856944</v>
+        <v>-0.5095945801028191</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3405345931797748</v>
+        <v>-0.2991409740845721</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5450130181197289</v>
+        <v>-0.5272900694949665</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.861075837798922</v>
+        <v>4.8347006388252</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.086968519036301</v>
+        <v>3.152321348400693</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.80008313011133</v>
+        <v>4.845168281418898</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.68010236649303</v>
+        <v>1.868977820032392</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.422592842871756</v>
+        <v>2.120775113606104</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.817551702754702</v>
+        <v>2.146834574762046</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9.59121186744672</v>
+        <v>10.65945990071761</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3096994301341388</v>
+        <v>0.3735853755110394</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.5371110525759833</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.096947572190141</v>
+        <v>1.096947572190142</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.6921830027542263</v>
@@ -1049,7 +1049,7 @@
         <v>0.582394425808957</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3800534565851949</v>
+        <v>0.3800534565851952</v>
       </c>
     </row>
     <row r="17">
@@ -1060,26 +1060,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.43075614885953</v>
+        <v>-5.592597078036629</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.365929427683691</v>
+        <v>-4.828527302583073</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.309223088902549</v>
+        <v>-1.406754759314796</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.369170596944612</v>
+        <v>-1.541284930897904</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6832090999469438</v>
+        <v>-0.645760957411642</v>
       </c>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>-0.3965792251608106</v>
+        <v>-0.3769537914693385</v>
       </c>
     </row>
     <row r="18">
@@ -1090,26 +1090,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2289881401724594</v>
+        <v>0.1676100651826045</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.724778818024769</v>
+        <v>3.770364450997009</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.914792096188255</v>
+        <v>2.857885264870218</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.612060013742996</v>
+        <v>3.477097601124899</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.051704032913022</v>
+        <v>0.8046807008316345</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.44963276166945</v>
+        <v>1.495719597698453</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>2.195822013263599</v>
+        <v>2.15612459529151</v>
       </c>
     </row>
     <row r="19">
@@ -1133,7 +1133,7 @@
         <v>2.637931863189813</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.987403103110835</v>
+        <v>2.987403103110831</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.6650984848883542</v>
@@ -1145,7 +1145,7 @@
         <v>0.9682399934653043</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.4900051106698479</v>
+        <v>0.4900051106698472</v>
       </c>
     </row>
     <row r="20">
@@ -1156,28 +1156,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-6.429043801469502</v>
+        <v>-6.146468594893722</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-9.485640847488073</v>
+        <v>-9.428264802361978</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.4977754526460933</v>
+        <v>-0.3642868502596592</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.2218678834139935</v>
+        <v>-0.3445463971583688</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.9254252125340254</v>
+        <v>-0.9178051174316626</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7900394121705173</v>
+        <v>-0.7723363888113057</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2396758006728945</v>
+        <v>-0.1584634143636115</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.03239258764665941</v>
+        <v>-0.05469913421724997</v>
       </c>
     </row>
     <row r="21">
@@ -1188,28 +1188,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-0.2227653708209277</v>
+        <v>0.08322947803302216</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-0.9001991049016764</v>
+        <v>-0.4155671337077058</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.608501249860247</v>
+        <v>6.366597396791331</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.425015788455735</v>
+        <v>6.385228498486574</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07761575179116242</v>
+        <v>0.1399176917446903</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1096292613483549</v>
+        <v>-0.04070671412475605</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>4.541974755035618</v>
+        <v>4.222848173447246</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.355737058166864</v>
+        <v>1.367300775461705</v>
       </c>
     </row>
     <row r="22">
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.227008172656886</v>
+        <v>-2.234299596150936</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.1297803128628927</v>
+        <v>-0.1071402760150602</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.192079396746597</v>
+        <v>-2.353119929604306</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.52523378108643</v>
+        <v>-1.564271640307908</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5256276776140847</v>
+        <v>-0.5507238932561072</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.06346274056616967</v>
+        <v>-0.05078311997143722</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.4570186137193231</v>
+        <v>-0.4631422112364907</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.213740941885084</v>
+        <v>-0.2081269768103088</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.66797607537407</v>
+        <v>1.673451986939925</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.430191526734669</v>
+        <v>4.53110910252801</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.140737664436863</v>
+        <v>2.147129380324543</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.412871514451956</v>
+        <v>3.413300947130461</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.821986301085897</v>
+        <v>0.75852516819783</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.017235048569751</v>
+        <v>2.161066632091518</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8399274982014311</v>
+        <v>0.8085123972089217</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.7753117845181449</v>
+        <v>0.720108030447865</v>
       </c>
     </row>
     <row r="25">
@@ -1356,28 +1356,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-3.70335026880694</v>
+        <v>-3.809249274280329</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.791184316574731</v>
+        <v>-0.7861865692217042</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.683758218183157</v>
+        <v>-1.779864382911127</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.4453346614898362</v>
+        <v>0.3589536439288274</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6040942711735612</v>
+        <v>-0.6049817416780593</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.20784996243306</v>
+        <v>-0.2068494396514915</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4696119242333355</v>
+        <v>-0.4790023605028906</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1164430784798536</v>
+        <v>0.1194383107792431</v>
       </c>
     </row>
     <row r="27">
@@ -1388,28 +1388,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3249622485706894</v>
+        <v>0.4951093399199535</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.053651511275087</v>
+        <v>3.103040717695678</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.899940328697413</v>
+        <v>1.758069036411327</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.297701757529631</v>
+        <v>3.031466307975284</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1317936785307885</v>
+        <v>0.1502892102489773</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.308174656790436</v>
+        <v>1.264437933231324</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9356306769923839</v>
+        <v>0.8526665103895511</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.550530235876087</v>
+        <v>2.297614180226982</v>
       </c>
     </row>
     <row r="28">
@@ -1456,28 +1456,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.879599317941695</v>
+        <v>-1.856056784061243</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.2056613905724667</v>
+        <v>-0.3703342973673042</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.2259031231371373</v>
+        <v>-0.219232969121647</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2005407776126059</v>
+        <v>0.3144409084182659</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.3967690681793161</v>
+        <v>-0.4002843037181166</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.0495517529112176</v>
+        <v>-0.0883639384623526</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.07564393941486312</v>
+        <v>-0.08594830274055916</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.03946123938169765</v>
+        <v>0.05260067166550157</v>
       </c>
     </row>
     <row r="30">
@@ -1488,28 +1488,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.04792835493008102</v>
+        <v>0.01623859648264305</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.708234146401657</v>
+        <v>1.720532269412302</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.441962059946058</v>
+        <v>1.420751377773057</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.132552568211841</v>
+        <v>2.225556886318664</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.002122978595346174</v>
+        <v>0.004976775919606546</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4986853389175319</v>
+        <v>0.4956490627514816</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6881056105423323</v>
+        <v>0.6781212722299942</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.5328435750936646</v>
+        <v>0.5348001452210683</v>
       </c>
     </row>
     <row r="31">
